--- a/Issue List.xlsx
+++ b/Issue List.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID#</t>
   </si>
@@ -67,30 +70,41 @@
     <t>Eric</t>
   </si>
   <si>
-    <t>Investigating</t>
+    <t>Was using Cartesian coordinates instead of longitude and latitude.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -107,6 +121,12 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -121,130 +141,425 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2" applyFill="1">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
-      <alignment/>
-    </xf>
-    <xf fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4"/>
-    <xf fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF33CC33"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" customWidth="1" max="2" width="81.57"/>
-    <col min="5" customWidth="1" max="5" width="87.29"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="5" max="5" width="87.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c s="2" r="A2">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="2" r="B2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="2" r="C2">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="2" r="D2">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="2" r="E2">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c s="3" r="A3">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="3" r="B3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="3" r="C3">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="3" r="D3">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c s="4" r="E3"/>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4">
-      <c s="3" r="A4">
-        <v>3.0</v>
-      </c>
-      <c t="s" s="3" r="B4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="3" r="C4">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="3" r="D4">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c t="s" s="3" r="E4">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c s="2" r="A5">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="2" r="B5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="2" r="C5">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="2" r="D5">
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c s="5" r="E5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Issue List.xlsx
+++ b/Issue List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID#</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Was using Cartesian coordinates instead of longitude and latitude.</t>
+  </si>
+  <si>
+    <t>KML file logs the asterix log as one path</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -558,6 +561,21 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Issue List.xlsx
+++ b/Issue List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>ID#</t>
   </si>
@@ -74,6 +74,36 @@
   </si>
   <si>
     <t>KML file logs the asterix log as one path</t>
+  </si>
+  <si>
+    <t>CalculateMetrics' method of calculating ID change rate is incorrect</t>
+  </si>
+  <si>
+    <t>Counts # of IDs in entire corelog instead of in a particular path</t>
+  </si>
+  <si>
+    <t>CalculateMetrics' method of calculating Det % is incorrect</t>
+  </si>
+  <si>
+    <t>It must count (# entries of the matched corelog path / # of entries in gpslog path within coverage) x 100%</t>
+  </si>
+  <si>
+    <t>Time offset must be able to be inputted in a day/hour/minute/second format</t>
+  </si>
+  <si>
+    <t>D+/HH/MM/SS</t>
+  </si>
+  <si>
+    <t>Must calculate metrics every 20 mins of video time</t>
+  </si>
+  <si>
+    <t>Must allow user to input directory for creation of file</t>
+  </si>
+  <si>
+    <t>Must verify the correctness of positional accuracy in corefile</t>
+  </si>
+  <si>
+    <t>Min Max and Avg</t>
   </si>
 </sst>
 </file>
@@ -102,7 +132,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,12 +144,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
@@ -127,6 +151,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -150,15 +192,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,16 +510,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="81.5703125" customWidth="1"/>
-    <col min="5" max="5" width="87.28515625" customWidth="1"/>
+    <col min="5" max="5" width="97.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -496,85 +540,175 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
